--- a/server_version/second run/count3.xlsx
+++ b/server_version/second run/count3.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam Wagner\Documents\Masterarbeit\PythonCode\server_version\second run\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0009274B-919A-447B-9703-84E6C9E9AC0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="31530" yWindow="2730" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="count" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>K</t>
   </si>
   <si>
@@ -77,13 +80,16 @@
   </si>
   <si>
     <t>Release C Leucocytes IV Liquid Release B ER Sepsis Triage Release D LacticAcid CRP Admission NC IV Antibiotics Release A ER Registration Admission IC ER Triage Return ER Release E</t>
+  </si>
+  <si>
+    <t>seq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,15 +122,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -166,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,9 +212,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,6 +264,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,73 +457,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -487,7 +539,7 @@
         <v>0.7</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -499,10 +551,10 @@
         <v>100</v>
       </c>
       <c r="I2">
-        <v>0.164739833380401</v>
+        <v>0.16473983338040099</v>
       </c>
       <c r="J2">
-        <v>0.2828783367050818</v>
+        <v>0.28287833670508178</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -523,13 +575,13 @@
         <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R2">
-        <v>91.6628942489624</v>
+        <v>91.662894248962402</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -543,7 +595,7 @@
         <v>0.7</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -555,10 +607,10 @@
         <v>100</v>
       </c>
       <c r="I3">
-        <v>0.164739833380401</v>
+        <v>0.16473983338040099</v>
       </c>
       <c r="J3">
-        <v>0.2828783367050818</v>
+        <v>0.28287833670508178</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -579,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R3">
         <v>100.1492481231689</v>
